--- a/xlsx/质量控制_intext.xlsx
+++ b/xlsx/质量控制_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8D%E9%AB%94%E9%9B%BB%E8%B7%AF</t>
   </si>
   <si>
-    <t>積體電路</t>
+    <t>积体电路</t>
   </si>
   <si>
     <t>政策_政策_管理_质量控制</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88</t>
   </si>
   <si>
-    <t>統計</t>
+    <t>统计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國防部</t>
+    <t>美国国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E5%88%B6%E5%9C%96</t>
   </si>
   <si>
-    <t>管制圖</t>
+    <t>管制图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E9%9D%A2%E5%93%81%E8%B4%A8%E7%AE%A1%E7%90%86</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%A8%99%E6%BA%96%E5%B7%AE</t>
   </si>
   <si>
-    <t>六標準差</t>
+    <t>六标准差</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Motorola</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
